--- a/biology/Écologie/Écomimétisme/Écomimétisme.xlsx
+++ b/biology/Écologie/Écomimétisme/Écomimétisme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89comim%C3%A9tisme</t>
+          <t>Écomimétisme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'écomimétisme est une nouvelle discipline philosophique issue du biomimétisme.
 Le biomimétisme de nos jours se décline le plus souvent en bionique, qui consiste à s'inspirer des solutions de la nature vivante pour créer des solutions industrielles artificielles (par exemple s'inspirer de la forme du bec du martin-pêcheur pour dessiner la locomotive d'un TGV japonais). Cette démarche de bio-inspiration n'est pas nouvelle, car c'est ce que l'être humain fait depuis des millénaires. Dans ce cas, dans son acception étroite, le biomimétisme n'est que la systématisation et l'industrialisation d'une pratique d'observation-copie-amélioration traditionnelle.
